--- a/data/emdat/gdis_adm2.xlsx
+++ b/data/emdat/gdis_adm2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/drought-child-marriage/data/emdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A01B1E8-2EA0-5D4E-ABDE-F8568B75128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2D01E-25EA-A44F-B062-1C84696F58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{82CE5DC1-1A19-DB47-BBAD-151862B470EB}"/>
+    <workbookView xWindow="13680" yWindow="500" windowWidth="27240" windowHeight="17060" xr2:uid="{82CE5DC1-1A19-DB47-BBAD-151862B470EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="107">
   <si>
     <t>iso3</t>
   </si>
@@ -222,13 +222,148 @@
   </si>
   <si>
     <t>Oti</t>
+  </si>
+  <si>
+    <t>1981-9012</t>
+  </si>
+  <si>
+    <t>adm1</t>
+  </si>
+  <si>
+    <t>Toliary</t>
+  </si>
+  <si>
+    <t>1988-9013</t>
+  </si>
+  <si>
+    <t>Fianarantsoa</t>
+  </si>
+  <si>
+    <t>2017-9468</t>
+  </si>
+  <si>
+    <t>Toamasina</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>Dosso</t>
+  </si>
+  <si>
+    <t>2005-9362</t>
+  </si>
+  <si>
+    <t>Kollo</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>Téra</t>
+  </si>
+  <si>
+    <t>Tahoua</t>
+  </si>
+  <si>
+    <t>Bkonni</t>
+  </si>
+  <si>
+    <t>Bouza</t>
+  </si>
+  <si>
+    <t>Illéla</t>
+  </si>
+  <si>
+    <t>Keita</t>
+  </si>
+  <si>
+    <t>Madaoua</t>
+  </si>
+  <si>
+    <t>Tchin-Tabarade</t>
+  </si>
+  <si>
+    <t>Diffa</t>
+  </si>
+  <si>
+    <t>Maïné-Soroa</t>
+  </si>
+  <si>
+    <t>N'Guigmi</t>
+  </si>
+  <si>
+    <t>Zinder</t>
+  </si>
+  <si>
+    <t>Gouré</t>
+  </si>
+  <si>
+    <t>Magaria</t>
+  </si>
+  <si>
+    <t>Matameye</t>
+  </si>
+  <si>
+    <t>Mirriah</t>
+  </si>
+  <si>
+    <t>Tanout</t>
+  </si>
+  <si>
+    <t>Maradi</t>
+  </si>
+  <si>
+    <t>Aguié</t>
+  </si>
+  <si>
+    <t>Dakoro</t>
+  </si>
+  <si>
+    <t>Groumdji</t>
+  </si>
+  <si>
+    <t>Madarounfa</t>
+  </si>
+  <si>
+    <t>Mayahi</t>
+  </si>
+  <si>
+    <t>Tessaoua</t>
+  </si>
+  <si>
+    <t>Sind</t>
+  </si>
+  <si>
+    <t>Baluchistan</t>
+  </si>
+  <si>
+    <t>N.W.F.P.</t>
+  </si>
+  <si>
+    <t>1989-9241</t>
+  </si>
+  <si>
+    <t>Umujyi wa Kigali</t>
+  </si>
+  <si>
+    <t>Amajyepfo</t>
+  </si>
+  <si>
+    <t>Iburengerazuba</t>
+  </si>
+  <si>
+    <t>Iburasirazuba</t>
+  </si>
+  <si>
+    <t>Savanes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +373,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -264,9 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,20 +751,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E616F517-03EA-8543-A634-C0F344F0DDDC}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,673 +773,1556 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C51" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B81" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B82" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B83" t="s">
         <v>30</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B84" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B85" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B86" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B87" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B90" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B92" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B93" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B94" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>39</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B95" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>39</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B96" t="s">
         <v>41</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B97" t="s">
         <v>41</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B98" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B99" t="s">
         <v>57</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B100" t="s">
         <v>57</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B101" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B102" t="s">
         <v>57</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B103" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B104" t="s">
         <v>57</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B105" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B106" t="s">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B107" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B108" t="s">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B109" t="s">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B110" t="s">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>58</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B111" t="s">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E62">
+  <conditionalFormatting sqref="F112">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$BD62="Yes"</formula>
+      <formula>$BE112="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
